--- a/biology/Zoologie/Avisaurus/Avisaurus.xlsx
+++ b/biology/Zoologie/Avisaurus/Avisaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Avisaurus archibaldi
-Avisaurus est un genre fossile d'oiseaux préhistoriques à dents qui a vécu à la fin du Crétacé supérieur en Amérique du Nord[1].
-Une seule espèce est rattachée au genre, Avisaurus archibaldi, décrite en 1984 par Michael K. Brett-Surman (d) et Gregory S. Paul[1].
+Avisaurus est un genre fossile d'oiseaux préhistoriques à dents qui a vécu à la fin du Crétacé supérieur en Amérique du Nord.
+Une seule espèce est rattachée au genre, Avisaurus archibaldi, décrite en 1984 par Michael K. Brett-Surman (d) et Gregory S. Paul.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre Avisaurus est composé du mot latin Aves, « oiseaux », associé au grec ancien « saûros » qui signifie « lézard » pour donner « oiseau-lézard ». Le nom d'espèce archibaldi honore son découvreur J. David Archibald (d), de l'Université de Californie à Berkeley.
 </t>
@@ -544,9 +558,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avisaurus archibaldi a été découvert en 1975 dans la formation géologique de Hell Creek en Amérique du Nord dans le Montana[1]. Ces sédiments datent du Maastrichtien, soit il y a environ entre 72,1 et 66,0 millions d'années, ce qui en fait le dernier des énantiornithides connus, juste avant leur disparition lors de la grande extinction du Crétacé-Tertiaire il y a 66 Ma (millions d'années).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avisaurus archibaldi a été découvert en 1975 dans la formation géologique de Hell Creek en Amérique du Nord dans le Montana. Ces sédiments datent du Maastrichtien, soit il y a environ entre 72,1 et 66,0 millions d'années, ce qui en fait le dernier des énantiornithides connus, juste avant leur disparition lors de la grande extinction du Crétacé-Tertiaire il y a 66 Ma (millions d'années).
 </t>
         </is>
       </c>
@@ -575,11 +591,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype est constitué d'un seul fossile, un tarsométatarse, référencé UCMP 117600. Il a été décrit dans un premier temps comme un tarsométatarse gauche d'un théropode non-avien par Brett-Surman et Paul en 1985[1].
-C'est Luis M. Chiappe en 1992 qui le redécrit comme le tarsométatarse droit d'un oiseau de la sous-classe des Enantiornithes[2].
-Cet os du bas de la patte de l'oiseau a une longueur de 7,4 centimètres, ce qui en fait un des plus grands tarsométatarses connu pour un énantiornithine[3]. Thomas Holtz (2011) estime que la taille de l'animal est comparable à celle d'un dindon, avec une envergure de l'ordre de 1,20 mètre[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype est constitué d'un seul fossile, un tarsométatarse, référencé UCMP 117600. Il a été décrit dans un premier temps comme un tarsométatarse gauche d'un théropode non-avien par Brett-Surman et Paul en 1985.
+C'est Luis M. Chiappe en 1992 qui le redécrit comme le tarsométatarse droit d'un oiseau de la sous-classe des Enantiornithes.
+Cet os du bas de la patte de l'oiseau a une longueur de 7,4 centimètres, ce qui en fait un des plus grands tarsométatarses connu pour un énantiornithine. Thomas Holtz (2011) estime que la taille de l'animal est comparable à celle d'un dindon, avec une envergure de l'ordre de 1,20 mètre.
 </t>
         </is>
       </c>
@@ -608,10 +626,12 @@
           <t>Autre espèce</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avisaurus gloriae Varrichio et Chiappe, 1995, a été découvert dans la partie supérieure de la formation de Two Medicine dans le comté de Glacier dans le Montana aux États-Unis, un niveau stratigraphique daté du Campanien supérieur[3].
-Cette espèce a été retirée du genre Avisaurus en 2018 et attribuée à un nouveau genre : Gettyia gloriae[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avisaurus gloriae Varrichio et Chiappe, 1995, a été découvert dans la partie supérieure de la formation de Two Medicine dans le comté de Glacier dans le Montana aux États-Unis, un niveau stratigraphique daté du Campanien supérieur.
+Cette espèce a été retirée du genre Avisaurus en 2018 et attribuée à un nouveau genre : Gettyia gloriae.
 </t>
         </is>
       </c>
@@ -640,14 +660,50 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’analyse phylogénétique de la famille des Avisauridae conduite par J. Atterholt et ses collègues en 2018 :
-considère le genre Avisaurus comme paraphylétique, en exclut Avisaurus gloriae pour la renommer Gettyia gloriae, tout en conservant Avisaurus archibaldi comme la seule espèce valide du genre Avisaurus[5] ;
-regroupe les genres Avisaurus ; Soroavisaurus (Chiappe, 1993) ; Neuquenornis (Chiappe &amp; Calvo, 1994) ; Intiornis (Novas, Agnolín &amp; Scanferla, 2010) ; Mirarce (Atterholt et al., 2018) et Gettyia (Atterholt et al., 2018) dans la famille des Avisauridae, le dernier genre étant érigé pour accueillir Gettyia (ex-Avisaurus) gloriae[5] ;
-place Avisaurus archibaldi juste en amont du groupe frère constitué par Gettyia gloriae et Mirarce eatoni[5].
-Cladogramme
-Le cladogramme ci-dessous est celui réalisé par J. Atterholt et ses collègues en 2018 ; il souligne la dichotomie entre les genres sud-américains en haut, et les nord-américains en bas[5] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L’analyse phylogénétique de la famille des Avisauridae conduite par J. Atterholt et ses collègues en 2018 :
+considère le genre Avisaurus comme paraphylétique, en exclut Avisaurus gloriae pour la renommer Gettyia gloriae, tout en conservant Avisaurus archibaldi comme la seule espèce valide du genre Avisaurus ;
+regroupe les genres Avisaurus ; Soroavisaurus (Chiappe, 1993) ; Neuquenornis (Chiappe &amp; Calvo, 1994) ; Intiornis (Novas, Agnolín &amp; Scanferla, 2010) ; Mirarce (Atterholt et al., 2018) et Gettyia (Atterholt et al., 2018) dans la famille des Avisauridae, le dernier genre étant érigé pour accueillir Gettyia (ex-Avisaurus) gloriae ;
+place Avisaurus archibaldi juste en amont du groupe frère constitué par Gettyia gloriae et Mirarce eatoni.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Avisaurus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Avisaurus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cladogramme</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme ci-dessous est celui réalisé par J. Atterholt et ses collègues en 2018 ; il souligne la dichotomie entre les genres sud-américains en haut, et les nord-américains en bas :
 </t>
         </is>
       </c>
